--- a/ComputerConfigurator/Resources/GraphicsCard.xlsx
+++ b/ComputerConfigurator/Resources/GraphicsCard.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="72">
   <si>
     <t>Название</t>
   </si>
@@ -236,10 +236,7 @@
     <t>https://www.dns-shop.ru/product/3bfb3d59637c8a5a/videokarta-inno3d-geforce-gt-730-silent-lp-n730-1sdv-e3bx/characteristics/</t>
   </si>
   <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end
+    <t xml:space="preserve">MSI AMD Radeon RX 550 AERO ITX OC [550 AERO ITX 2G OC]
 </t>
   </si>
 </sst>
@@ -609,7 +606,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -712,7 +709,7 @@
     </row>
     <row r="3" spans="1:13" ht="30">
       <c r="A3" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="3">
         <v>9999</v>
@@ -1490,9 +1487,7 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="A22" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
